--- a/data/pca/factorExposure/factorExposure_2018-09-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03864314328959006</v>
+        <v>-0.03164002231965598</v>
       </c>
       <c r="C2">
-        <v>0.04856711542556725</v>
+        <v>0.01006913268618955</v>
       </c>
       <c r="D2">
-        <v>0.03547219138762235</v>
+        <v>0.01123163006428936</v>
       </c>
       <c r="E2">
-        <v>-0.04649730992447158</v>
+        <v>-0.0140108741714168</v>
       </c>
       <c r="F2">
-        <v>-0.1382134473701754</v>
+        <v>-0.02495191751993501</v>
       </c>
       <c r="G2">
-        <v>0.098095654480171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.07597856744032808</v>
+      </c>
+      <c r="H2">
+        <v>0.0175336575250596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1323134770445567</v>
+        <v>-0.0828892551228952</v>
       </c>
       <c r="C3">
-        <v>0.02525306634930093</v>
+        <v>-0.02846920402171754</v>
       </c>
       <c r="D3">
-        <v>0.03674104221242058</v>
+        <v>0.02405625632026626</v>
       </c>
       <c r="E3">
-        <v>-0.08188223839342192</v>
+        <v>-0.008737770148838923</v>
       </c>
       <c r="F3">
-        <v>-0.3719550176114441</v>
+        <v>-0.0009929031952177034</v>
       </c>
       <c r="G3">
-        <v>0.2604590278533283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2608149227997009</v>
+      </c>
+      <c r="H3">
+        <v>0.04214251930992547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04664088378071835</v>
+        <v>-0.04567681249800222</v>
       </c>
       <c r="C4">
-        <v>0.03522950989030516</v>
+        <v>-0.002157861299190455</v>
       </c>
       <c r="D4">
-        <v>-0.001624315060333194</v>
+        <v>0.02666118910792215</v>
       </c>
       <c r="E4">
-        <v>-0.06789548828414713</v>
+        <v>0.02223154375061897</v>
       </c>
       <c r="F4">
-        <v>-0.06778651668483265</v>
+        <v>-0.06051605235609767</v>
       </c>
       <c r="G4">
-        <v>0.06812265812046381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04445605359995466</v>
+      </c>
+      <c r="H4">
+        <v>0.02887385177398836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01120854482837044</v>
+        <v>-0.03028435215340833</v>
       </c>
       <c r="C6">
-        <v>0.001142596107152782</v>
+        <v>-0.001356979474916759</v>
       </c>
       <c r="D6">
-        <v>0.01145538492829933</v>
+        <v>0.0330872699103336</v>
       </c>
       <c r="E6">
-        <v>-0.01042259400335729</v>
+        <v>0.006215964540842174</v>
       </c>
       <c r="F6">
-        <v>-0.0130402427686733</v>
+        <v>-0.03879614473259754</v>
       </c>
       <c r="G6">
-        <v>-0.01740800702711394</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.009792864117190495</v>
+      </c>
+      <c r="H6">
+        <v>0.05208834650728421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02511550339163808</v>
+        <v>-0.02062587483512393</v>
       </c>
       <c r="C7">
-        <v>0.02019405413162188</v>
+        <v>-0.000595962553753613</v>
       </c>
       <c r="D7">
-        <v>0.02802565028169799</v>
+        <v>0.01352274962972122</v>
       </c>
       <c r="E7">
-        <v>-0.03009983128330471</v>
+        <v>0.03644933910654633</v>
       </c>
       <c r="F7">
-        <v>-0.07168149445596186</v>
+        <v>-0.02436066326179998</v>
       </c>
       <c r="G7">
-        <v>0.05808210313720642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03059083415829907</v>
+      </c>
+      <c r="H7">
+        <v>0.01633261290663361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009616813344009524</v>
+        <v>-0.0007521739776731167</v>
       </c>
       <c r="C8">
-        <v>0.007984403195918574</v>
+        <v>-0.0002296566005844979</v>
       </c>
       <c r="D8">
-        <v>-0.003546416900641852</v>
+        <v>0.01036740006856098</v>
       </c>
       <c r="E8">
-        <v>-0.07409846255941177</v>
+        <v>0.0132008334424776</v>
       </c>
       <c r="F8">
-        <v>-0.09422565164486413</v>
+        <v>-0.02513888587064927</v>
       </c>
       <c r="G8">
-        <v>0.06566445143037185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05153514272293936</v>
+      </c>
+      <c r="H8">
+        <v>0.009668412797088584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03863213062362773</v>
+        <v>-0.03616614296701118</v>
       </c>
       <c r="C9">
-        <v>0.02982396319600934</v>
+        <v>-0.004889305975201503</v>
       </c>
       <c r="D9">
-        <v>-0.01587206430897443</v>
+        <v>0.02293829823067818</v>
       </c>
       <c r="E9">
-        <v>-0.0689720743501242</v>
+        <v>0.02039659162316771</v>
       </c>
       <c r="F9">
-        <v>-0.07161169281709306</v>
+        <v>-0.03842315562219362</v>
       </c>
       <c r="G9">
-        <v>0.0482359056286934</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05640912828842506</v>
+      </c>
+      <c r="H9">
+        <v>0.02841594327628139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05886893928879819</v>
+        <v>-0.08686754575815274</v>
       </c>
       <c r="C10">
-        <v>0.05101197957934141</v>
+        <v>-0.04569702564459791</v>
       </c>
       <c r="D10">
-        <v>-0.02366145440737702</v>
+        <v>-0.1423802765460985</v>
       </c>
       <c r="E10">
-        <v>0.1118842771340431</v>
+        <v>-0.01948484653758283</v>
       </c>
       <c r="F10">
-        <v>-0.0502958889037035</v>
+        <v>0.08329917113694864</v>
       </c>
       <c r="G10">
-        <v>-0.00792711484422535</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03004164779661332</v>
+      </c>
+      <c r="H10">
+        <v>0.004356320713734351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0316096821259799</v>
+        <v>-0.02120199131943958</v>
       </c>
       <c r="C11">
-        <v>0.0114625165229936</v>
+        <v>-0.01135414029170339</v>
       </c>
       <c r="D11">
-        <v>0.01540693938222461</v>
+        <v>0.03109595743930087</v>
       </c>
       <c r="E11">
-        <v>-0.03218556657821887</v>
+        <v>-0.003019838902302934</v>
       </c>
       <c r="F11">
-        <v>-0.03989808977831715</v>
+        <v>-0.02480722502035212</v>
       </c>
       <c r="G11">
-        <v>0.02185785308041895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03264187565471754</v>
+      </c>
+      <c r="H11">
+        <v>0.02899037479479438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.0384198821408986</v>
+        <v>-0.03002688439973751</v>
       </c>
       <c r="C12">
-        <v>0.01274257767175296</v>
+        <v>-0.01109959426337994</v>
       </c>
       <c r="D12">
-        <v>0.002651318045213124</v>
+        <v>0.02959272658770151</v>
       </c>
       <c r="E12">
-        <v>-0.0457926091383633</v>
+        <v>0.008001490426421849</v>
       </c>
       <c r="F12">
-        <v>-0.02172620261303823</v>
+        <v>-0.02816144119897567</v>
       </c>
       <c r="G12">
-        <v>0.01857716548130474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.008876813292144341</v>
+      </c>
+      <c r="H12">
+        <v>0.01571160928290547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01885319126485499</v>
+        <v>-0.0260926226785786</v>
       </c>
       <c r="C13">
-        <v>0.02321510165220148</v>
+        <v>0.00965871631961103</v>
       </c>
       <c r="D13">
-        <v>0.03426583422588662</v>
+        <v>0.003639839247123868</v>
       </c>
       <c r="E13">
-        <v>-0.01953246707332407</v>
+        <v>-0.01571929203893628</v>
       </c>
       <c r="F13">
-        <v>-0.08477336969518473</v>
+        <v>-0.02320132943017845</v>
       </c>
       <c r="G13">
-        <v>0.05247249810772848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.0595521737319407</v>
+      </c>
+      <c r="H13">
+        <v>0.02673521139002546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01103848152253295</v>
+        <v>-0.01545986048507596</v>
       </c>
       <c r="C14">
-        <v>0.02159456190026442</v>
+        <v>-0.002297130028509264</v>
       </c>
       <c r="D14">
-        <v>0.00318416732965933</v>
+        <v>7.253829110685495e-05</v>
       </c>
       <c r="E14">
-        <v>-0.03614584599365565</v>
+        <v>0.008355748390232402</v>
       </c>
       <c r="F14">
-        <v>-0.07346924505680279</v>
+        <v>-0.0252885933508744</v>
       </c>
       <c r="G14">
-        <v>0.05689572091400903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04165451939516214</v>
+      </c>
+      <c r="H14">
+        <v>-0.01794074126640898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02484959543216858</v>
+        <v>-0.02228987844254018</v>
       </c>
       <c r="C16">
-        <v>0.01181191505281933</v>
+        <v>-0.0119933691288156</v>
       </c>
       <c r="D16">
-        <v>0.0126721864130171</v>
+        <v>0.02668779204861333</v>
       </c>
       <c r="E16">
-        <v>-0.03154773480882287</v>
+        <v>0.001904124262174654</v>
       </c>
       <c r="F16">
-        <v>-0.04085564395443488</v>
+        <v>-0.02542632883263139</v>
       </c>
       <c r="G16">
-        <v>0.02629552470897762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02711546758726215</v>
+      </c>
+      <c r="H16">
+        <v>0.02284857282834817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03818015830262501</v>
+        <v>-0.03469924056913998</v>
       </c>
       <c r="C19">
-        <v>0.01501793107048511</v>
+        <v>-0.006295245127806534</v>
       </c>
       <c r="D19">
-        <v>0.02255078376656885</v>
+        <v>0.009952995056337793</v>
       </c>
       <c r="E19">
-        <v>-0.04341636161496116</v>
+        <v>-0.00149843889927711</v>
       </c>
       <c r="F19">
-        <v>-0.09740797172989418</v>
+        <v>-0.03359335823008053</v>
       </c>
       <c r="G19">
-        <v>0.06253081002778893</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.06365186711982411</v>
+      </c>
+      <c r="H19">
+        <v>0.04053024508456565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.007000166545936186</v>
+        <v>-0.007077745292576037</v>
       </c>
       <c r="C20">
-        <v>0.02090037694736546</v>
+        <v>0.006545516701076661</v>
       </c>
       <c r="D20">
-        <v>0.007667873411690163</v>
+        <v>0.0003548177129927149</v>
       </c>
       <c r="E20">
-        <v>-0.03074198521477958</v>
+        <v>0.002026381886512634</v>
       </c>
       <c r="F20">
-        <v>-0.06966392691017198</v>
+        <v>-0.01739559659137234</v>
       </c>
       <c r="G20">
-        <v>0.06248909284342304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04950411266625897</v>
+      </c>
+      <c r="H20">
+        <v>-0.008349277162391989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002376611820444491</v>
+        <v>-0.02240023360968679</v>
       </c>
       <c r="C21">
-        <v>-0.003258471228744687</v>
+        <v>0.002623404797381739</v>
       </c>
       <c r="D21">
-        <v>0.004506781942112234</v>
+        <v>0.001176397104802492</v>
       </c>
       <c r="E21">
-        <v>-0.03154209657824078</v>
+        <v>0.01309379976274349</v>
       </c>
       <c r="F21">
-        <v>-0.08144935025826881</v>
+        <v>-0.008713792419477029</v>
       </c>
       <c r="G21">
-        <v>0.01963584944568076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.050177742311701</v>
+      </c>
+      <c r="H21">
+        <v>0.008798992863298475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02673309274456645</v>
+        <v>-0.02144901060295192</v>
       </c>
       <c r="C24">
-        <v>0.01168056319720514</v>
+        <v>-0.006432025487893177</v>
       </c>
       <c r="D24">
-        <v>0.01014298899019701</v>
+        <v>0.02746222955632897</v>
       </c>
       <c r="E24">
-        <v>-0.02670301483734636</v>
+        <v>0.001901875234844144</v>
       </c>
       <c r="F24">
-        <v>-0.04043449531528297</v>
+        <v>-0.02166390843590714</v>
       </c>
       <c r="G24">
-        <v>0.01317619525140571</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02634749450839564</v>
+      </c>
+      <c r="H24">
+        <v>0.02844406126278479</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03028383850120647</v>
+        <v>-0.03228954729301656</v>
       </c>
       <c r="C25">
-        <v>0.01038740363049212</v>
+        <v>-0.006668923826329547</v>
       </c>
       <c r="D25">
-        <v>0.008159737280961327</v>
+        <v>0.02271069744551771</v>
       </c>
       <c r="E25">
-        <v>-0.03238108244266503</v>
+        <v>0.002122610491444482</v>
       </c>
       <c r="F25">
-        <v>-0.03824297414576844</v>
+        <v>-0.02654339836540818</v>
       </c>
       <c r="G25">
-        <v>0.006792620166315242</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03081407825153592</v>
+      </c>
+      <c r="H25">
+        <v>0.03099988944088082</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01810697997299799</v>
+        <v>-0.01954522414406418</v>
       </c>
       <c r="C26">
-        <v>-0.00168675953137452</v>
+        <v>0.01546293488488881</v>
       </c>
       <c r="D26">
-        <v>0.03511587056677417</v>
+        <v>0.004890905889662049</v>
       </c>
       <c r="E26">
-        <v>-0.03989881396681157</v>
+        <v>-0.00553211812163958</v>
       </c>
       <c r="F26">
-        <v>-0.05787716696059543</v>
+        <v>-0.005686125048057719</v>
       </c>
       <c r="G26">
-        <v>0.0352478639312425</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03606692065990578</v>
+      </c>
+      <c r="H26">
+        <v>-0.001437998175153048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07250272018571663</v>
+        <v>-0.03184398730088228</v>
       </c>
       <c r="C27">
-        <v>0.05310741912978386</v>
+        <v>-0.01821357780912532</v>
       </c>
       <c r="D27">
-        <v>-0.00264944745967286</v>
+        <v>0.005648774759117292</v>
       </c>
       <c r="E27">
-        <v>-0.05225424672438551</v>
+        <v>0.004517421995042371</v>
       </c>
       <c r="F27">
-        <v>-0.06090565013618566</v>
+        <v>-0.02720130464225346</v>
       </c>
       <c r="G27">
-        <v>0.0670878325695026</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02540236282119295</v>
+      </c>
+      <c r="H27">
+        <v>-0.001266640644522545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08290506777481922</v>
+        <v>-0.1329065171390816</v>
       </c>
       <c r="C28">
-        <v>0.0655301386110469</v>
+        <v>-0.05530816462063361</v>
       </c>
       <c r="D28">
-        <v>-0.04104874262421932</v>
+        <v>-0.2095626736217634</v>
       </c>
       <c r="E28">
-        <v>0.1678794717668087</v>
+        <v>-0.02479336893766452</v>
       </c>
       <c r="F28">
-        <v>-0.06215820988083864</v>
+        <v>0.1142481790755548</v>
       </c>
       <c r="G28">
-        <v>0.01943748127900478</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01270549970076847</v>
+      </c>
+      <c r="H28">
+        <v>-0.008234895492743321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01948519812755067</v>
+        <v>-0.02057003048925646</v>
       </c>
       <c r="C29">
-        <v>0.02367598691124208</v>
+        <v>-0.005464601910429336</v>
       </c>
       <c r="D29">
-        <v>-0.002129923270398577</v>
+        <v>0.002944082037577857</v>
       </c>
       <c r="E29">
-        <v>-0.05751161189289408</v>
+        <v>0.01020128835114556</v>
       </c>
       <c r="F29">
-        <v>-0.0547957174845295</v>
+        <v>-0.02908695093031305</v>
       </c>
       <c r="G29">
-        <v>0.05567837560949058</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03356449100997305</v>
+      </c>
+      <c r="H29">
+        <v>-0.01965302195758993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.07968406758236175</v>
+        <v>-0.05459436287478652</v>
       </c>
       <c r="C30">
-        <v>0.05630527359568558</v>
+        <v>-0.005059964909210862</v>
       </c>
       <c r="D30">
-        <v>0.0348856799343323</v>
+        <v>0.04972398727081618</v>
       </c>
       <c r="E30">
-        <v>-0.0926297319265838</v>
+        <v>-0.03317038426663282</v>
       </c>
       <c r="F30">
-        <v>-0.06159394200032955</v>
+        <v>-0.07956881019097392</v>
       </c>
       <c r="G30">
-        <v>0.02655910822827541</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06197705176869509</v>
+      </c>
+      <c r="H30">
+        <v>0.04000133805703079</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05695552481448998</v>
+        <v>-0.05166366380268764</v>
       </c>
       <c r="C31">
-        <v>0.01979755988951985</v>
+        <v>-0.02276649208239459</v>
       </c>
       <c r="D31">
-        <v>0.04549276130081974</v>
+        <v>0.02061412724121757</v>
       </c>
       <c r="E31">
-        <v>-0.03571453837447338</v>
+        <v>-0.008341505971495666</v>
       </c>
       <c r="F31">
-        <v>-0.04038019410065805</v>
+        <v>-0.02363792207382144</v>
       </c>
       <c r="G31">
-        <v>0.08817575788773915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01820788806991882</v>
+      </c>
+      <c r="H31">
+        <v>-0.01534652144189827</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01195130531182549</v>
+        <v>-0.00620178158351652</v>
       </c>
       <c r="C32">
-        <v>0.01984281159632656</v>
+        <v>-0.01488014744672033</v>
       </c>
       <c r="D32">
-        <v>-0.0009245649490828332</v>
+        <v>-0.006474155775504077</v>
       </c>
       <c r="E32">
-        <v>-0.07421792926473969</v>
+        <v>0.01960682732969573</v>
       </c>
       <c r="F32">
-        <v>-0.07158320526576413</v>
+        <v>-0.04190928659467218</v>
       </c>
       <c r="G32">
-        <v>0.046623869274028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.04915123771526023</v>
+      </c>
+      <c r="H32">
+        <v>0.04252293036642161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05019749069377913</v>
+        <v>-0.03813240019354582</v>
       </c>
       <c r="C33">
-        <v>0.001519881782690332</v>
+        <v>-0.005949815641631863</v>
       </c>
       <c r="D33">
-        <v>0.04578032338592494</v>
+        <v>0.03073481493472384</v>
       </c>
       <c r="E33">
-        <v>-0.06682714820680963</v>
+        <v>-0.02174180889304797</v>
       </c>
       <c r="F33">
-        <v>-0.09602676047086003</v>
+        <v>-0.01581757679913458</v>
       </c>
       <c r="G33">
-        <v>0.04632441705994455</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.05802262785642179</v>
+      </c>
+      <c r="H33">
+        <v>0.01827947515239989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0293400341285938</v>
+        <v>-0.02463435174650231</v>
       </c>
       <c r="C34">
-        <v>0.01731892153981202</v>
+        <v>-0.02080900014523016</v>
       </c>
       <c r="D34">
-        <v>0.01165023520755647</v>
+        <v>0.02596718755450809</v>
       </c>
       <c r="E34">
-        <v>-0.03632689324798664</v>
+        <v>0.00639556449025429</v>
       </c>
       <c r="F34">
-        <v>-0.04445161154669148</v>
+        <v>-0.02769092310634733</v>
       </c>
       <c r="G34">
-        <v>0.01492019058336514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02535206035439318</v>
+      </c>
+      <c r="H34">
+        <v>0.02614735619344878</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0136870821788272</v>
+        <v>-0.01874799358816589</v>
       </c>
       <c r="C36">
-        <v>0.00962048329519532</v>
+        <v>0.001662676541799043</v>
       </c>
       <c r="D36">
-        <v>0.001999807458016077</v>
+        <v>-0.002319976218551812</v>
       </c>
       <c r="E36">
-        <v>-0.02685880302525083</v>
+        <v>0.002624473080360409</v>
       </c>
       <c r="F36">
-        <v>-0.03015579929310581</v>
+        <v>-0.006549751083924186</v>
       </c>
       <c r="G36">
-        <v>0.03432700723524579</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01938494933848171</v>
+      </c>
+      <c r="H36">
+        <v>-0.00442513928050059</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006944663082108013</v>
+        <v>-0.01571194425538524</v>
       </c>
       <c r="C38">
-        <v>-0.0009984970176737645</v>
+        <v>-0.01826753808978351</v>
       </c>
       <c r="D38">
-        <v>-0.01227239050754116</v>
+        <v>-0.004504570595280237</v>
       </c>
       <c r="E38">
-        <v>0.005202052858971435</v>
+        <v>0.006206405636127748</v>
       </c>
       <c r="F38">
-        <v>-0.001486395273772895</v>
+        <v>-0.008074902755128647</v>
       </c>
       <c r="G38">
-        <v>-0.00287907818116118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02513675071738262</v>
+      </c>
+      <c r="H38">
+        <v>0.02001643106444431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03831552649813777</v>
+        <v>-0.02383518007083279</v>
       </c>
       <c r="C39">
-        <v>0.02473571302783903</v>
+        <v>-0.00505944840358941</v>
       </c>
       <c r="D39">
-        <v>0.02916182390269966</v>
+        <v>0.06191674097063569</v>
       </c>
       <c r="E39">
-        <v>-0.0354324362664868</v>
+        <v>-0.001179374904100776</v>
       </c>
       <c r="F39">
-        <v>-0.04913278450211098</v>
+        <v>-0.04825506378260067</v>
       </c>
       <c r="G39">
-        <v>0.01741992254310321</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05147739617806069</v>
+      </c>
+      <c r="H39">
+        <v>0.05194134497101439</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02853292823224645</v>
+        <v>-0.02777723298528081</v>
       </c>
       <c r="C40">
-        <v>0.03655321490705115</v>
+        <v>-0.004561244258551406</v>
       </c>
       <c r="D40">
-        <v>0.05439994981615646</v>
+        <v>0.02175552129371747</v>
       </c>
       <c r="E40">
-        <v>-0.04070074795502738</v>
+        <v>-0.01822180943658535</v>
       </c>
       <c r="F40">
-        <v>-0.08136057382468859</v>
+        <v>-0.03980771612923654</v>
       </c>
       <c r="G40">
-        <v>0.06419768744286526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.03455135641624561</v>
+      </c>
+      <c r="H40">
+        <v>0.04530844909380136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.003236939215987207</v>
+        <v>-0.007648968587466707</v>
       </c>
       <c r="C41">
-        <v>-0.01079296893108654</v>
+        <v>0.0003700719626550511</v>
       </c>
       <c r="D41">
-        <v>0.006618840837747271</v>
+        <v>-0.008598592551333209</v>
       </c>
       <c r="E41">
-        <v>-0.01939778807318223</v>
+        <v>-0.000883796945132581</v>
       </c>
       <c r="F41">
-        <v>-0.02233194060888146</v>
+        <v>0.00606696388458288</v>
       </c>
       <c r="G41">
-        <v>0.05529589274330911</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.007264327242884521</v>
+      </c>
+      <c r="H41">
+        <v>-0.01824250428205552</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.400471246783385</v>
+        <v>-0.2288897710340781</v>
       </c>
       <c r="C42">
-        <v>-0.8771332830969755</v>
+        <v>0.07669545171067747</v>
       </c>
       <c r="D42">
-        <v>0.1680141430507488</v>
+        <v>0.6000824096959073</v>
       </c>
       <c r="E42">
-        <v>0.1136058893826523</v>
+        <v>-0.1213609871109872</v>
       </c>
       <c r="F42">
-        <v>0.0240092549058586</v>
+        <v>0.738671846141291</v>
       </c>
       <c r="G42">
-        <v>0.006235583179456891</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.07304807437141214</v>
+      </c>
+      <c r="H42">
+        <v>0.01380925276423809</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.009867694405520169</v>
+        <v>-0.00517066750281316</v>
       </c>
       <c r="C43">
-        <v>-0.006571831162051519</v>
+        <v>0.002992250706986006</v>
       </c>
       <c r="D43">
-        <v>0.01086588463262003</v>
+        <v>-0.01076565294787516</v>
       </c>
       <c r="E43">
-        <v>-0.0192964532473028</v>
+        <v>-0.00529406187070568</v>
       </c>
       <c r="F43">
-        <v>-0.03772433874277285</v>
+        <v>0.01054963818532961</v>
       </c>
       <c r="G43">
-        <v>0.05390114255882981</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01577303936768944</v>
+      </c>
+      <c r="H43">
+        <v>-0.01025292596009672</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01732323147565297</v>
+        <v>-0.01210258245100494</v>
       </c>
       <c r="C44">
-        <v>0.005405951046301772</v>
+        <v>-0.001044942138346243</v>
       </c>
       <c r="D44">
-        <v>0.02117419494607537</v>
+        <v>0.01993323390044873</v>
       </c>
       <c r="E44">
-        <v>-0.04885143851330601</v>
+        <v>0.002435503588453261</v>
       </c>
       <c r="F44">
-        <v>-0.1968802624098973</v>
+        <v>-0.005952913829369486</v>
       </c>
       <c r="G44">
-        <v>0.1663455056742846</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08444979046367176</v>
+      </c>
+      <c r="H44">
+        <v>0.01688387423400427</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01846530846033687</v>
+        <v>-0.02178764488937381</v>
       </c>
       <c r="C46">
-        <v>0.02173108066368596</v>
+        <v>-0.002021275274921604</v>
       </c>
       <c r="D46">
-        <v>0.02207948841753504</v>
+        <v>0.005186112424777351</v>
       </c>
       <c r="E46">
-        <v>-0.0653324613871421</v>
+        <v>-0.001592719894378407</v>
       </c>
       <c r="F46">
-        <v>-0.0751750797189176</v>
+        <v>-0.03388920044640425</v>
       </c>
       <c r="G46">
-        <v>0.04554172987323774</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05250949824963846</v>
+      </c>
+      <c r="H46">
+        <v>-0.01345217288774024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09182685501889788</v>
+        <v>-0.07070916802468939</v>
       </c>
       <c r="C47">
-        <v>0.03445710177373658</v>
+        <v>-0.04147299074803939</v>
       </c>
       <c r="D47">
-        <v>0.02460348783943377</v>
+        <v>0.02788136608229339</v>
       </c>
       <c r="E47">
-        <v>-0.04863793050703245</v>
+        <v>-0.004142929276221534</v>
       </c>
       <c r="F47">
-        <v>-0.01150058025786155</v>
+        <v>-0.03442110558135337</v>
       </c>
       <c r="G47">
-        <v>0.09247383587114337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.01296930819662422</v>
+      </c>
+      <c r="H47">
+        <v>-0.0318240965642643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0092832755267082</v>
+        <v>-0.01688876157090482</v>
       </c>
       <c r="C48">
-        <v>0.004998783317450272</v>
+        <v>-0.007924891882651476</v>
       </c>
       <c r="D48">
-        <v>0.01388706619264299</v>
+        <v>0.003921628617784247</v>
       </c>
       <c r="E48">
-        <v>-0.04068274072521676</v>
+        <v>-0.0007977740126769257</v>
       </c>
       <c r="F48">
-        <v>-0.0446110063399292</v>
+        <v>-0.01190573407665378</v>
       </c>
       <c r="G48">
-        <v>0.01033209084213535</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02570835460253312</v>
+      </c>
+      <c r="H48">
+        <v>0.0002126787066336533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08458118279891078</v>
+        <v>-0.06394646084007125</v>
       </c>
       <c r="C50">
-        <v>0.01893371031883487</v>
+        <v>-0.03459288634712419</v>
       </c>
       <c r="D50">
-        <v>0.03502515146013935</v>
+        <v>0.03839885013832447</v>
       </c>
       <c r="E50">
-        <v>-0.05695566481230148</v>
+        <v>0.01099694943534957</v>
       </c>
       <c r="F50">
-        <v>-0.03089943957703154</v>
+        <v>-0.03125630123701051</v>
       </c>
       <c r="G50">
-        <v>0.02274007904542187</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.01806138615625116</v>
+      </c>
+      <c r="H50">
+        <v>-0.02686077415379856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.03943416883524656</v>
+        <v>-0.02542339080435556</v>
       </c>
       <c r="C51">
-        <v>-0.002784089761934716</v>
+        <v>-0.004332458851952709</v>
       </c>
       <c r="D51">
-        <v>0.0425500524618918</v>
+        <v>-0.003950619990987447</v>
       </c>
       <c r="E51">
-        <v>-0.006699249375282515</v>
+        <v>-0.01313758878164737</v>
       </c>
       <c r="F51">
-        <v>-0.1506495679621266</v>
+        <v>0.01820120687732082</v>
       </c>
       <c r="G51">
-        <v>0.06103666212090545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07747357463440091</v>
+      </c>
+      <c r="H51">
+        <v>0.02032100731860859</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1013488078914698</v>
+        <v>-0.08936453880414463</v>
       </c>
       <c r="C53">
-        <v>0.048049712834095</v>
+        <v>-0.05144812829231347</v>
       </c>
       <c r="D53">
-        <v>0.04295190290644042</v>
+        <v>0.05348231334318644</v>
       </c>
       <c r="E53">
-        <v>-0.06110626113635363</v>
+        <v>-0.001599095286733517</v>
       </c>
       <c r="F53">
-        <v>0.05377554225620001</v>
+        <v>-0.06782398070479637</v>
       </c>
       <c r="G53">
-        <v>0.04129537165699181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05724583372719168</v>
+      </c>
+      <c r="H53">
+        <v>-0.03755684909033948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02119417575958884</v>
+        <v>-0.02346974271482171</v>
       </c>
       <c r="C54">
-        <v>0.036080090670633</v>
+        <v>-0.01731322518108274</v>
       </c>
       <c r="D54">
-        <v>0.002386376633418615</v>
+        <v>-0.02263591062025421</v>
       </c>
       <c r="E54">
-        <v>-0.03449368330108672</v>
+        <v>0.003201445901735551</v>
       </c>
       <c r="F54">
-        <v>-0.08307214421294</v>
+        <v>-0.01081543546343679</v>
       </c>
       <c r="G54">
-        <v>0.06353577995482018</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03986042410300041</v>
+      </c>
+      <c r="H54">
+        <v>-0.01847963404568401</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09802258794056867</v>
+        <v>-0.07716370980449717</v>
       </c>
       <c r="C55">
-        <v>0.03394120499897018</v>
+        <v>-0.0452086299083477</v>
       </c>
       <c r="D55">
-        <v>-0.0008503488871727646</v>
+        <v>0.05224630025695905</v>
       </c>
       <c r="E55">
-        <v>-0.0640906411193008</v>
+        <v>0.01029645563825741</v>
       </c>
       <c r="F55">
-        <v>0.03774404149211167</v>
+        <v>-0.05686029828043225</v>
       </c>
       <c r="G55">
-        <v>0.05489270890489015</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03202173871549234</v>
+      </c>
+      <c r="H55">
+        <v>-0.0479565023385744</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1393375228693967</v>
+        <v>-0.1175600686079424</v>
       </c>
       <c r="C56">
-        <v>0.0780261269189223</v>
+        <v>-0.07453437214436653</v>
       </c>
       <c r="D56">
-        <v>0.02845284659421963</v>
+        <v>0.07034735825376068</v>
       </c>
       <c r="E56">
-        <v>-0.078720153323684</v>
+        <v>0.003278837900847006</v>
       </c>
       <c r="F56">
-        <v>0.1628820716942297</v>
+        <v>-0.09678104089496001</v>
       </c>
       <c r="G56">
-        <v>0.03292227013053849</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1009642289244635</v>
+      </c>
+      <c r="H56">
+        <v>-0.03002331894210933</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04376276939437274</v>
+        <v>-0.04366154121846905</v>
       </c>
       <c r="C57">
-        <v>0.01360364845052803</v>
+        <v>0.002418688296736492</v>
       </c>
       <c r="D57">
-        <v>0.02841249290037517</v>
+        <v>0.01753261191530341</v>
       </c>
       <c r="E57">
-        <v>-0.01940791728317745</v>
+        <v>-0.01051926537771103</v>
       </c>
       <c r="F57">
-        <v>-0.06861261103910636</v>
+        <v>-0.02509621385693858</v>
       </c>
       <c r="G57">
-        <v>0.02229454266849959</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06695797720978794</v>
+      </c>
+      <c r="H57">
+        <v>0.01354449349396116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2062405262474139</v>
+        <v>-0.1545615661801515</v>
       </c>
       <c r="C58">
-        <v>0.06369626248015961</v>
+        <v>-0.07203571863018392</v>
       </c>
       <c r="D58">
-        <v>0.1157498949930801</v>
+        <v>0.1154830631859308</v>
       </c>
       <c r="E58">
-        <v>-0.2263792514036371</v>
+        <v>-0.1171129451346684</v>
       </c>
       <c r="F58">
-        <v>-0.3253327964452696</v>
+        <v>-0.06884253033604755</v>
       </c>
       <c r="G58">
-        <v>-0.3936330982699138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6966597441244137</v>
+      </c>
+      <c r="H58">
+        <v>-0.5327462014636037</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0815616809320209</v>
+        <v>-0.1342522301342284</v>
       </c>
       <c r="C59">
-        <v>0.08930213076481963</v>
+        <v>-0.06246210018812821</v>
       </c>
       <c r="D59">
-        <v>-0.03261513027900459</v>
+        <v>-0.2079215600216851</v>
       </c>
       <c r="E59">
-        <v>0.1477772307697066</v>
+        <v>-0.04134811294892066</v>
       </c>
       <c r="F59">
-        <v>-0.0579310715662292</v>
+        <v>0.09472832568093643</v>
       </c>
       <c r="G59">
-        <v>-0.01026548925838002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01821391889282328</v>
+      </c>
+      <c r="H59">
+        <v>0.02348720797925626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1713838238680705</v>
+        <v>-0.1683349031892723</v>
       </c>
       <c r="C60">
-        <v>0.07148295225485821</v>
+        <v>-0.0672226405135266</v>
       </c>
       <c r="D60">
-        <v>0.06247930520517699</v>
+        <v>0.01114782540665911</v>
       </c>
       <c r="E60">
-        <v>-0.02424223717804151</v>
+        <v>-0.05314468528978245</v>
       </c>
       <c r="F60">
-        <v>-0.06721943376827004</v>
+        <v>-0.06673388950813011</v>
       </c>
       <c r="G60">
-        <v>-0.2663155589408133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1174508613385351</v>
+      </c>
+      <c r="H60">
+        <v>0.3759265235953034</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02031631270395083</v>
+        <v>-0.02241790844449989</v>
       </c>
       <c r="C61">
-        <v>0.01248054631219574</v>
+        <v>-0.01022031314198077</v>
       </c>
       <c r="D61">
-        <v>0.006008952234087163</v>
+        <v>0.03320498617834935</v>
       </c>
       <c r="E61">
-        <v>-0.02041062443502078</v>
+        <v>0.003242042292488803</v>
       </c>
       <c r="F61">
-        <v>-0.03978539830098097</v>
+        <v>-0.03422463421207527</v>
       </c>
       <c r="G61">
-        <v>0.003221106490759721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03089018368731579</v>
+      </c>
+      <c r="H61">
+        <v>0.03855457266656353</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01694488705567009</v>
+        <v>-0.01364218206953637</v>
       </c>
       <c r="C63">
-        <v>0.01409758971386119</v>
+        <v>-0.0006902640607265731</v>
       </c>
       <c r="D63">
-        <v>0.01414160749954948</v>
+        <v>0.004769630107839237</v>
       </c>
       <c r="E63">
-        <v>-0.04255439828204693</v>
+        <v>0.00241010789925495</v>
       </c>
       <c r="F63">
-        <v>-0.02074000941194355</v>
+        <v>-0.0206244838600513</v>
       </c>
       <c r="G63">
-        <v>0.03664223133042257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01722804925291137</v>
+      </c>
+      <c r="H63">
+        <v>-0.01243885389432629</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02975845443210814</v>
+        <v>-0.03845878198902427</v>
       </c>
       <c r="C64">
-        <v>0.01990875362799495</v>
+        <v>-0.01621382342193993</v>
       </c>
       <c r="D64">
-        <v>-0.01854516927753203</v>
+        <v>0.03026447531721398</v>
       </c>
       <c r="E64">
-        <v>-0.04434627071857897</v>
+        <v>0.01403835088759057</v>
       </c>
       <c r="F64">
-        <v>-0.02557963829652185</v>
+        <v>-0.0298328140181846</v>
       </c>
       <c r="G64">
-        <v>0.07255993816965058</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.008973502525084213</v>
+      </c>
+      <c r="H64">
+        <v>0.02875115606577558</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01135925427728358</v>
+        <v>-0.03511209609221025</v>
       </c>
       <c r="C65">
-        <v>-0.0002124892660207832</v>
+        <v>-0.001609877986467642</v>
       </c>
       <c r="D65">
-        <v>0.01029100157684529</v>
+        <v>0.03752563903148953</v>
       </c>
       <c r="E65">
-        <v>-0.006295644031384653</v>
+        <v>0.006388024770651336</v>
       </c>
       <c r="F65">
-        <v>-0.008722118823329301</v>
+        <v>-0.03960054340085644</v>
       </c>
       <c r="G65">
-        <v>-0.01826266999604893</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001061249919302126</v>
+      </c>
+      <c r="H65">
+        <v>0.0599560697022762</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03535884930942618</v>
+        <v>-0.02988809837528004</v>
       </c>
       <c r="C66">
-        <v>0.02842373273985295</v>
+        <v>-0.0110957503407813</v>
       </c>
       <c r="D66">
-        <v>0.0227891291161027</v>
+        <v>0.06871512389360723</v>
       </c>
       <c r="E66">
-        <v>-0.0399927942939212</v>
+        <v>-0.006018824730436098</v>
       </c>
       <c r="F66">
-        <v>-0.04100237969834396</v>
+        <v>-0.06842334799247068</v>
       </c>
       <c r="G66">
-        <v>0.01012657100891177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04126824985541973</v>
+      </c>
+      <c r="H66">
+        <v>0.06309598907213421</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02589582172077737</v>
+        <v>-0.03515588370732278</v>
       </c>
       <c r="C67">
-        <v>0.008785992115317708</v>
+        <v>-0.02478801242118573</v>
       </c>
       <c r="D67">
-        <v>-0.01603194628945804</v>
+        <v>-0.01152163224384615</v>
       </c>
       <c r="E67">
-        <v>0.0330065441680159</v>
+        <v>0.002779580252265014</v>
       </c>
       <c r="F67">
-        <v>-0.003708609591696673</v>
+        <v>-0.009936967225064024</v>
       </c>
       <c r="G67">
-        <v>0.0007230119804874008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01444281685499925</v>
+      </c>
+      <c r="H67">
+        <v>0.0311051992306929</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08901689724951166</v>
+        <v>-0.1376699297529123</v>
       </c>
       <c r="C68">
-        <v>0.07190359693420674</v>
+        <v>-0.04088250561036278</v>
       </c>
       <c r="D68">
-        <v>-0.04809293393606882</v>
+        <v>-0.1938366894929858</v>
       </c>
       <c r="E68">
-        <v>0.1660471529773301</v>
+        <v>-0.0362746956000153</v>
       </c>
       <c r="F68">
-        <v>-0.03187318093682855</v>
+        <v>0.1126658135627827</v>
       </c>
       <c r="G68">
-        <v>-0.06462825892318369</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0191545793804199</v>
+      </c>
+      <c r="H68">
+        <v>-0.03754432983301965</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07147099455952212</v>
+        <v>-0.05528038445040242</v>
       </c>
       <c r="C69">
-        <v>0.0345100887977571</v>
+        <v>-0.03733960427444834</v>
       </c>
       <c r="D69">
-        <v>0.02502178038346941</v>
+        <v>0.02547813848950457</v>
       </c>
       <c r="E69">
-        <v>-0.01031262596010506</v>
+        <v>-0.004072352771962418</v>
       </c>
       <c r="F69">
-        <v>-0.02557269221063942</v>
+        <v>-0.03311678054646316</v>
       </c>
       <c r="G69">
-        <v>0.07137234362902738</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.005694381012168228</v>
+      </c>
+      <c r="H69">
+        <v>-0.01321609647055194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1068828635129389</v>
+        <v>-0.1316328081164846</v>
       </c>
       <c r="C71">
-        <v>0.07661291359654794</v>
+        <v>-0.04864118007253648</v>
       </c>
       <c r="D71">
-        <v>-0.02711888122884649</v>
+        <v>-0.1825811392355217</v>
       </c>
       <c r="E71">
-        <v>0.2132098429595152</v>
+        <v>-0.03665878870192135</v>
       </c>
       <c r="F71">
-        <v>-0.04373278870788643</v>
+        <v>0.118619631425263</v>
       </c>
       <c r="G71">
-        <v>-0.006054463171543309</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01664831648619685</v>
+      </c>
+      <c r="H71">
+        <v>-0.02158328434838257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1090386647365097</v>
+        <v>-0.08446268692074957</v>
       </c>
       <c r="C72">
-        <v>0.09745891506053669</v>
+        <v>-0.05703259836340824</v>
       </c>
       <c r="D72">
-        <v>0.01672532075398014</v>
+        <v>0.05461544226206159</v>
       </c>
       <c r="E72">
-        <v>-0.07167821163779327</v>
+        <v>-0.007624183343040351</v>
       </c>
       <c r="F72">
-        <v>-0.08807170694541511</v>
+        <v>-0.1132000261199359</v>
       </c>
       <c r="G72">
-        <v>-0.1583074318566468</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09426353228711082</v>
+      </c>
+      <c r="H72">
+        <v>0.1502406877258151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2575088390933842</v>
+        <v>-0.2384946545538148</v>
       </c>
       <c r="C73">
-        <v>0.1091741962933979</v>
+        <v>-0.09081514395146514</v>
       </c>
       <c r="D73">
-        <v>0.05652052252928075</v>
+        <v>0.03740639687347953</v>
       </c>
       <c r="E73">
-        <v>0.02488057610532757</v>
+        <v>-0.08329412388826675</v>
       </c>
       <c r="F73">
-        <v>-0.1315901211001999</v>
+        <v>-0.08438240831651114</v>
       </c>
       <c r="G73">
-        <v>-0.4096184328869616</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1741841484608795</v>
+      </c>
+      <c r="H73">
+        <v>0.5121658213594588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1204022695042025</v>
+        <v>-0.1063014610430172</v>
       </c>
       <c r="C74">
-        <v>0.04432419140741968</v>
+        <v>-0.06664435151923935</v>
       </c>
       <c r="D74">
-        <v>0.03181008301303907</v>
+        <v>0.07064869741587594</v>
       </c>
       <c r="E74">
-        <v>-0.03572435144154882</v>
+        <v>-0.004747327353122797</v>
       </c>
       <c r="F74">
-        <v>0.1153855549035446</v>
+        <v>-0.07972559919750778</v>
       </c>
       <c r="G74">
-        <v>0.02544465192514617</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.08134737423095058</v>
+      </c>
+      <c r="H74">
+        <v>-0.009894091843134977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2122171647441332</v>
+        <v>-0.2109918660675053</v>
       </c>
       <c r="C75">
-        <v>0.1209807717474812</v>
+        <v>-0.1345395166714886</v>
       </c>
       <c r="D75">
-        <v>0.07008685352480153</v>
+        <v>0.1071959718412559</v>
       </c>
       <c r="E75">
-        <v>-0.09876456989719358</v>
+        <v>-0.02243280567436911</v>
       </c>
       <c r="F75">
-        <v>0.180297692114131</v>
+        <v>-0.1602928053957952</v>
       </c>
       <c r="G75">
-        <v>0.1047815831867815</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1620143870842977</v>
+      </c>
+      <c r="H75">
+        <v>-0.09432556821256062</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2501502431575336</v>
+        <v>-0.1963453363981017</v>
       </c>
       <c r="C76">
-        <v>0.1245005984314807</v>
+        <v>-0.1293917097373103</v>
       </c>
       <c r="D76">
-        <v>0.01127394739486063</v>
+        <v>0.09477545002262378</v>
       </c>
       <c r="E76">
-        <v>-0.06186232667012791</v>
+        <v>0.01737239500402884</v>
       </c>
       <c r="F76">
-        <v>0.1952254988962862</v>
+        <v>-0.1537554324128103</v>
       </c>
       <c r="G76">
-        <v>0.08983843610210442</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1747636789111665</v>
+      </c>
+      <c r="H76">
+        <v>-0.0966385320767589</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.133082164684679</v>
+        <v>-0.07271468614525403</v>
       </c>
       <c r="C77">
-        <v>-0.01447581841382754</v>
+        <v>-0.01997951838220859</v>
       </c>
       <c r="D77">
-        <v>0.07344975707985892</v>
+        <v>0.07458805493026373</v>
       </c>
       <c r="E77">
-        <v>-0.08887763757397633</v>
+        <v>-0.01211365713235479</v>
       </c>
       <c r="F77">
-        <v>-0.239332032532837</v>
+        <v>-0.0107993519809311</v>
       </c>
       <c r="G77">
-        <v>0.1484062308488513</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1222570210834723</v>
+      </c>
+      <c r="H77">
+        <v>-0.05900707954704697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0491502398872526</v>
+        <v>-0.03268825889516634</v>
       </c>
       <c r="C78">
-        <v>0.01217596128437726</v>
+        <v>-0.0136958994423176</v>
       </c>
       <c r="D78">
-        <v>0.03084422939201532</v>
+        <v>0.05481131324743226</v>
       </c>
       <c r="E78">
-        <v>-0.09867397121601722</v>
+        <v>0.005651016612990173</v>
       </c>
       <c r="F78">
-        <v>-0.04112957095189083</v>
+        <v>-0.05177012946937434</v>
       </c>
       <c r="G78">
-        <v>0.07085775639182923</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.04839830954126817</v>
+      </c>
+      <c r="H78">
+        <v>0.03055349226096611</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1965876341275428</v>
+        <v>-0.1683529252985321</v>
       </c>
       <c r="C80">
-        <v>-0.1327107394507524</v>
+        <v>-0.07905528355847241</v>
       </c>
       <c r="D80">
-        <v>-0.9248797804998319</v>
+        <v>0.009226347674584866</v>
       </c>
       <c r="E80">
-        <v>-0.2574838761482984</v>
+        <v>0.9608306631255622</v>
       </c>
       <c r="F80">
-        <v>-0.03789371524635332</v>
+        <v>0.1237097146206216</v>
       </c>
       <c r="G80">
-        <v>-0.0228620962742986</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1003735922057322</v>
+      </c>
+      <c r="H80">
+        <v>0.008860174212327387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1472795188776623</v>
+        <v>-0.1426317531596852</v>
       </c>
       <c r="C81">
-        <v>0.1025853882559619</v>
+        <v>-0.09106216524256329</v>
       </c>
       <c r="D81">
-        <v>0.02203670601520085</v>
+        <v>0.06062403454815057</v>
       </c>
       <c r="E81">
-        <v>-0.07212795789817844</v>
+        <v>-0.0006825798894106414</v>
       </c>
       <c r="F81">
-        <v>0.1699426981723959</v>
+        <v>-0.1109975214788778</v>
       </c>
       <c r="G81">
-        <v>0.0230058140528411</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1041937727731716</v>
+      </c>
+      <c r="H81">
+        <v>-0.06907440521748555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05142358633044022</v>
+        <v>-0.03720641733796291</v>
       </c>
       <c r="C83">
-        <v>-0.01094601265628277</v>
+        <v>-0.01297980358434737</v>
       </c>
       <c r="D83">
-        <v>0.0373367969859849</v>
+        <v>0.02088982820191114</v>
       </c>
       <c r="E83">
-        <v>-0.03432330973062089</v>
+        <v>-0.01234667987568807</v>
       </c>
       <c r="F83">
-        <v>-0.06650790857568792</v>
+        <v>-0.01346084458319584</v>
       </c>
       <c r="G83">
-        <v>0.06481313130825964</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.0528377268865074</v>
+      </c>
+      <c r="H83">
+        <v>0.01706471779303908</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2212454819553748</v>
+        <v>-0.2016912013866149</v>
       </c>
       <c r="C85">
-        <v>0.1032956499643724</v>
+        <v>-0.1151936129848932</v>
       </c>
       <c r="D85">
-        <v>0.04405572065923172</v>
+        <v>0.113801904885954</v>
       </c>
       <c r="E85">
-        <v>-0.0702118216446411</v>
+        <v>-0.01268644113778405</v>
       </c>
       <c r="F85">
-        <v>0.1891028918963398</v>
+        <v>-0.1438326899661097</v>
       </c>
       <c r="G85">
-        <v>0.09198996832532079</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1637111396009088</v>
+      </c>
+      <c r="H85">
+        <v>-0.06896486656779693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.003072645181301722</v>
+        <v>-0.01355756754668031</v>
       </c>
       <c r="C86">
-        <v>-0.01129727573724412</v>
+        <v>0.0002794879016884303</v>
       </c>
       <c r="D86">
-        <v>0.005299820472918407</v>
+        <v>0.007549167687333071</v>
       </c>
       <c r="E86">
-        <v>-0.05492881032036988</v>
+        <v>-0.008334696471373445</v>
       </c>
       <c r="F86">
-        <v>-0.07459266590202357</v>
+        <v>-0.0004418877179951868</v>
       </c>
       <c r="G86">
-        <v>0.03680632672673217</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07681101776152194</v>
+      </c>
+      <c r="H86">
+        <v>0.04229338887631014</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02873598955463118</v>
+        <v>-0.0252863409985509</v>
       </c>
       <c r="C87">
-        <v>0.0100367234379584</v>
+        <v>-0.006331456676252951</v>
       </c>
       <c r="D87">
-        <v>0.009376301621107449</v>
+        <v>0.02431375683210558</v>
       </c>
       <c r="E87">
-        <v>-0.03103473006549015</v>
+        <v>0.0003502367737017873</v>
       </c>
       <c r="F87">
-        <v>-0.06460830151647977</v>
+        <v>-0.02817927044012966</v>
       </c>
       <c r="G87">
-        <v>0.005125523128770573</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08571720775469678</v>
+      </c>
+      <c r="H87">
+        <v>0.02838584937689021</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.008462293380354485</v>
+        <v>-0.03791371478263931</v>
       </c>
       <c r="C88">
-        <v>0.0183699766334743</v>
+        <v>0.004660762187486742</v>
       </c>
       <c r="D88">
-        <v>-0.02330902080454366</v>
+        <v>-0.006724671166508421</v>
       </c>
       <c r="E88">
-        <v>0.005595418989528207</v>
+        <v>0.007898463613211051</v>
       </c>
       <c r="F88">
-        <v>-0.02973405816166252</v>
+        <v>-0.01250664385455722</v>
       </c>
       <c r="G88">
-        <v>0.0874802541353444</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.007326239155666383</v>
+      </c>
+      <c r="H88">
+        <v>0.007355161497083164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1281045293330369</v>
+        <v>-0.211782648553598</v>
       </c>
       <c r="C89">
-        <v>0.09925895702947421</v>
+        <v>-0.07433210956021483</v>
       </c>
       <c r="D89">
-        <v>-0.03978246718176211</v>
+        <v>-0.3163626552838328</v>
       </c>
       <c r="E89">
-        <v>0.3056639293295794</v>
+        <v>-0.0791961446317653</v>
       </c>
       <c r="F89">
-        <v>-0.1086068153525007</v>
+        <v>0.1714256666332459</v>
       </c>
       <c r="G89">
-        <v>0.0476504533964578</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.003964012187438903</v>
+      </c>
+      <c r="H89">
+        <v>-0.02543554837271796</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1153058040011518</v>
+        <v>-0.1684899181460804</v>
       </c>
       <c r="C90">
-        <v>0.101085010517815</v>
+        <v>-0.06029493714046767</v>
       </c>
       <c r="D90">
-        <v>-0.08775165115740559</v>
+        <v>-0.2775146208020706</v>
       </c>
       <c r="E90">
-        <v>0.265127671827471</v>
+        <v>-0.05055118664250451</v>
       </c>
       <c r="F90">
-        <v>-0.06280401353564506</v>
+        <v>0.162761943313319</v>
       </c>
       <c r="G90">
-        <v>-0.02576206785569849</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03523821914749663</v>
+      </c>
+      <c r="H90">
+        <v>-0.04415495715695735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2835957600243145</v>
+        <v>-0.2188301602093521</v>
       </c>
       <c r="C91">
-        <v>0.09932441469228973</v>
+        <v>-0.1371405361406592</v>
       </c>
       <c r="D91">
-        <v>0.06222682641603117</v>
+        <v>0.1157279912994357</v>
       </c>
       <c r="E91">
-        <v>-0.06326629685904531</v>
+        <v>-0.0143838154379208</v>
       </c>
       <c r="F91">
-        <v>0.2510083427112443</v>
+        <v>-0.1519230213480142</v>
       </c>
       <c r="G91">
-        <v>0.04946301909379604</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2143812812469241</v>
+      </c>
+      <c r="H91">
+        <v>-0.1293342794701043</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1848321290429349</v>
+        <v>-0.2221736791810628</v>
       </c>
       <c r="C92">
-        <v>0.09317929697493098</v>
+        <v>-0.1355842465208942</v>
       </c>
       <c r="D92">
-        <v>-0.121573449602566</v>
+        <v>-0.2312850148095607</v>
       </c>
       <c r="E92">
-        <v>0.4776268894431884</v>
+        <v>-0.03665956629593756</v>
       </c>
       <c r="F92">
-        <v>-0.1308135787863824</v>
+        <v>0.1351302222987147</v>
       </c>
       <c r="G92">
-        <v>0.2513555076843884</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.05448299523841568</v>
+      </c>
+      <c r="H92">
+        <v>-0.147789216906094</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1287945694108876</v>
+        <v>-0.1919657667372925</v>
       </c>
       <c r="C93">
-        <v>0.08592935981679171</v>
+        <v>-0.07542520056427776</v>
       </c>
       <c r="D93">
-        <v>-0.09971166832795737</v>
+        <v>-0.292714490350139</v>
       </c>
       <c r="E93">
-        <v>0.3769500640997733</v>
+        <v>-0.06838477583770883</v>
       </c>
       <c r="F93">
-        <v>-0.0103437229509204</v>
+        <v>0.1979334923671742</v>
       </c>
       <c r="G93">
-        <v>-0.04429055335307333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.0432059713816455</v>
+      </c>
+      <c r="H93">
+        <v>0.01534532529704128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2542544534714122</v>
+        <v>-0.2392761633167958</v>
       </c>
       <c r="C94">
-        <v>0.1316652852762381</v>
+        <v>-0.1295309262583547</v>
       </c>
       <c r="D94">
-        <v>0.03520607342066113</v>
+        <v>0.09186853128721051</v>
       </c>
       <c r="E94">
-        <v>-0.08814651814064225</v>
+        <v>-0.03143488861315041</v>
       </c>
       <c r="F94">
-        <v>0.3027446371902164</v>
+        <v>-0.1710566141265764</v>
       </c>
       <c r="G94">
-        <v>0.004970910690294854</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2235385881508089</v>
+      </c>
+      <c r="H94">
+        <v>-0.1419860400485529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07892980976206795</v>
+        <v>-0.06331992286730227</v>
       </c>
       <c r="C95">
-        <v>0.02051998550948925</v>
+        <v>-0.04227405297897028</v>
       </c>
       <c r="D95">
-        <v>0.05848519738457099</v>
+        <v>0.06942613623739505</v>
       </c>
       <c r="E95">
-        <v>-0.05619961603398171</v>
+        <v>-0.07099556407094215</v>
       </c>
       <c r="F95">
-        <v>-0.01722231313669484</v>
+        <v>-0.03287241015635894</v>
       </c>
       <c r="G95">
-        <v>0.3804843641294999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06385159133994735</v>
+      </c>
+      <c r="H95">
+        <v>0.009724582608207825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1936811469056347</v>
+        <v>-0.1717775056792881</v>
       </c>
       <c r="C98">
-        <v>0.05362128501752293</v>
+        <v>-0.09801203379038144</v>
       </c>
       <c r="D98">
-        <v>0.04391821610607816</v>
+        <v>0.0281602504732634</v>
       </c>
       <c r="E98">
-        <v>0.05474333996423214</v>
+        <v>-0.05602505865858343</v>
       </c>
       <c r="F98">
-        <v>-0.03993912749870106</v>
+        <v>-0.03522843218710918</v>
       </c>
       <c r="G98">
-        <v>-0.2663595397068272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1511536173690734</v>
+      </c>
+      <c r="H98">
+        <v>0.3718400979600825</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00341873359560128</v>
+        <v>-0.01397994919967202</v>
       </c>
       <c r="C101">
-        <v>0.02790409200092015</v>
+        <v>-0.002431560987679032</v>
       </c>
       <c r="D101">
-        <v>0.01355348533113986</v>
+        <v>0.003212466937463642</v>
       </c>
       <c r="E101">
-        <v>-0.1238888458444753</v>
+        <v>0.005703871303013611</v>
       </c>
       <c r="F101">
-        <v>-0.1940724667621427</v>
+        <v>-0.03637084495238173</v>
       </c>
       <c r="G101">
-        <v>-0.05577287464706855</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09774980639179094</v>
+      </c>
+      <c r="H101">
+        <v>-0.07077588362037565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.08970211219076933</v>
+        <v>-0.1012711424920372</v>
       </c>
       <c r="C102">
-        <v>0.03025518015301163</v>
+        <v>-0.05019415852654935</v>
       </c>
       <c r="D102">
-        <v>0.01522608484841552</v>
+        <v>0.05877267172553718</v>
       </c>
       <c r="E102">
-        <v>-0.08134106765247411</v>
+        <v>0.0009969142993022015</v>
       </c>
       <c r="F102">
-        <v>0.1281768534695667</v>
+        <v>-0.07738399246446431</v>
       </c>
       <c r="G102">
-        <v>0.09607878726274066</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.0977272833830775</v>
+      </c>
+      <c r="H102">
+        <v>-0.05749690913073671</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02375123676633181</v>
+        <v>-0.02120741849021358</v>
       </c>
       <c r="C103">
-        <v>0.0110199401153113</v>
+        <v>-0.01159080522945627</v>
       </c>
       <c r="D103">
-        <v>0.01096646851415747</v>
+        <v>0.01274555356179439</v>
       </c>
       <c r="E103">
-        <v>-0.007466579983690446</v>
+        <v>0.006001034297462622</v>
       </c>
       <c r="F103">
-        <v>0.02281093276966794</v>
+        <v>-0.01837486751193943</v>
       </c>
       <c r="G103">
-        <v>0.03838020144370042</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.009607994558691943</v>
+      </c>
+      <c r="H103">
+        <v>-0.0097772925658878</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.4116275942472832</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.8883368544626127</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.07127370815800101</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02496623024575951</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1561844914671897</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03767092340718639</v>
+      </c>
+      <c r="H104">
+        <v>-0.03229740166537563</v>
       </c>
     </row>
   </sheetData>
